--- a/data/trans_dic/P33A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.8213099093767467</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9090853686681033</v>
+        <v>0.9090853686681034</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8248713256039486</v>
+        <v>0.8272699890428937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8192568732751737</v>
+        <v>0.8207367795418415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9000415077840644</v>
+        <v>0.8974250788736096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.730441797077963</v>
+        <v>0.7263540075729159</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7402236039874508</v>
+        <v>0.741962344074346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8163385876181878</v>
+        <v>0.8142493405597782</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7932458872836435</v>
+        <v>0.7895866179328578</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7941130294473977</v>
+        <v>0.7928271788912026</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8745669391287371</v>
+        <v>0.8780438401483314</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.894244520331837</v>
+        <v>0.8958021986132788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8896746861706708</v>
+        <v>0.8923176207565368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9714799249000853</v>
+        <v>0.9694788384552421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8113429245104669</v>
+        <v>0.8085781082376872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8210510536928628</v>
+        <v>0.8226579312123513</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.91514914349623</v>
+        <v>0.914499848706393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8471057274544352</v>
+        <v>0.8455338647327681</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8462694084412429</v>
+        <v>0.8467868813883336</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9367997568085343</v>
+        <v>0.9374096840115345</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.7982124625424399</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8548597919772424</v>
+        <v>0.8548597919772423</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8104051516793807</v>
+        <v>0.807253507591203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7924803765398416</v>
+        <v>0.7941317807053568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8327985168032777</v>
+        <v>0.8300638970263221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7174576573161142</v>
+        <v>0.7174221702303268</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7353122688745775</v>
+        <v>0.7275157446523689</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7981233773520324</v>
+        <v>0.8000087013980433</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7758840969727743</v>
+        <v>0.7757682124222811</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7706637947333339</v>
+        <v>0.7715501302750958</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8244426527064149</v>
+        <v>0.8261400614730373</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8661264782039749</v>
+        <v>0.8640997425363309</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8586716622419999</v>
+        <v>0.8580576033020753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.909379087635748</v>
+        <v>0.9069217421671082</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7883430562378601</v>
+        <v>0.7868834440337319</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8047326882196875</v>
+        <v>0.80076397007848</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8704468786264259</v>
+        <v>0.8704541918615928</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8214560133600971</v>
+        <v>0.8198730058396148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8209629987982804</v>
+        <v>0.8202634072769884</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8785950142993445</v>
+        <v>0.8802343871748085</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.822417306870872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8336968637269525</v>
+        <v>0.8336968637269524</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7332470094547221</v>
@@ -882,7 +882,7 @@
         <v>0.7873262048468914</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8012952980732782</v>
+        <v>0.8012952980732784</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.801288163217731</v>
+        <v>0.7994261178166305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7908434286415602</v>
+        <v>0.7925034633748868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7998945331290713</v>
+        <v>0.7989480541586081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6962984932149235</v>
+        <v>0.699405583751124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7171581630192055</v>
+        <v>0.7193877033633456</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7363093700537642</v>
+        <v>0.7400466208097303</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7569277681185989</v>
+        <v>0.7557907177117871</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7629724209702838</v>
+        <v>0.7627214246435055</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7794621247550357</v>
+        <v>0.7789319435060253</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8591870377974796</v>
+        <v>0.8555183896812343</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8525061541648603</v>
+        <v>0.8515760484701778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8655533346515484</v>
+        <v>0.8656700616180862</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7644289967769906</v>
+        <v>0.7671032192106045</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7828218995678141</v>
+        <v>0.7860647041939626</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.795130278729353</v>
+        <v>0.7984374361234315</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8025911501763019</v>
+        <v>0.802853154925086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8095670117407993</v>
+        <v>0.8071286125047843</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8221427213475645</v>
+        <v>0.8202153581487716</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8248741372644014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.81293749470112</v>
+        <v>0.8129374947011196</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.6941538689801006</v>
@@ -982,7 +982,7 @@
         <v>0.6929528250405008</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7325073380994885</v>
+        <v>0.7325073380994886</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.7743720914756377</v>
@@ -991,7 +991,7 @@
         <v>0.7588816468147866</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.7717691749170986</v>
+        <v>0.7717691749170985</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8218344159621205</v>
+        <v>0.8215867482605601</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7940475937954085</v>
+        <v>0.79242612414972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7817889370853397</v>
+        <v>0.7815998223884152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6525903596430759</v>
+        <v>0.6562123624083147</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6554734984824901</v>
+        <v>0.6502945403906639</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7074125281216391</v>
+        <v>0.7056712181204067</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7485756346617178</v>
+        <v>0.7486478957832111</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7326770544962506</v>
+        <v>0.7333253976952053</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7518598181970474</v>
+        <v>0.7510697924857256</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8825904257495994</v>
+        <v>0.884562686968189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8531652466456812</v>
+        <v>0.8532002727682508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8414975705834407</v>
+        <v>0.8449828059364077</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7324603295055431</v>
+        <v>0.7331098307662348</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7280549203855355</v>
+        <v>0.7276416918230161</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7577551325751655</v>
+        <v>0.7590527537745674</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8003953786451191</v>
+        <v>0.7981931880439795</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.780827773045793</v>
+        <v>0.7847046044575697</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7912708923149913</v>
+        <v>0.7928690329712449</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.7774492768972056</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7220568372424224</v>
+        <v>0.7220568372424222</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7796858928689887</v>
+        <v>0.7772112180899362</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8153845360711685</v>
+        <v>0.8188674750139363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7702827176483411</v>
+        <v>0.7739134051841303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6185327513821404</v>
+        <v>0.6174401229127935</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6561424601157801</v>
+        <v>0.6593539964180593</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.614205880594802</v>
+        <v>0.6124579138522712</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7114868120260165</v>
+        <v>0.7106699496006361</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7493131034785553</v>
+        <v>0.7470604156659558</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7005554759166542</v>
+        <v>0.6998960146223575</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8531941836280034</v>
+        <v>0.8541529505510647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8861541971955254</v>
+        <v>0.8869876531724363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8316789365012558</v>
+        <v>0.8329940701719596</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7106133639336535</v>
+        <v>0.7138780178714101</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7446224022580933</v>
+        <v>0.7481380432051773</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6742960696534811</v>
+        <v>0.672509445499384</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7714867697088068</v>
+        <v>0.7730005758297749</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8051051385421812</v>
+        <v>0.8042275572660438</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7437898100817874</v>
+        <v>0.7445212821180041</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.8662417807728888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8133621511753534</v>
+        <v>0.8133621511753536</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.7611800349948805</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8379854585842514</v>
+        <v>0.8391356996385513</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8256076031493366</v>
+        <v>0.8216635391906549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7806665035498301</v>
+        <v>0.7817613993063761</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7144089593795758</v>
+        <v>0.7140369426819543</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6708054198245862</v>
+        <v>0.6752694844390748</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.668627538903504</v>
+        <v>0.6723987410789866</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7861335663874951</v>
+        <v>0.7859152362844455</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7580504971616144</v>
+        <v>0.7568329728746048</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7317630574436351</v>
+        <v>0.7306681931799046</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9139453730608492</v>
+        <v>0.9163623760599305</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9005080059601998</v>
+        <v>0.9003938059985614</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8426547403604799</v>
+        <v>0.8429253705276132</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8056907163296312</v>
+        <v>0.8076056757046586</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.768695513258665</v>
+        <v>0.7659697369049208</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7316434990551461</v>
+        <v>0.7354635369831903</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8480480121357801</v>
+        <v>0.8453042156426546</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8189726673946149</v>
+        <v>0.81947536760776</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7795225343891699</v>
+        <v>0.7775881330929565</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.8860410936486685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7195450905428789</v>
+        <v>0.7195450905428787</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.7720350988888868</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8370881161723125</v>
+        <v>0.8384899318886773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8451701743730103</v>
+        <v>0.8478483044360166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6744804932363133</v>
+        <v>0.6767557493311487</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7225785140183015</v>
+        <v>0.7275861384823271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.697166781551441</v>
+        <v>0.7001251990677221</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6291890958958807</v>
+        <v>0.6300715640787379</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7828216956884737</v>
+        <v>0.7858164733253882</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7699186181461244</v>
+        <v>0.7678660176180108</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6571202418166067</v>
+        <v>0.6578753605367237</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9301527186992757</v>
+        <v>0.9284255388083551</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9212903837949682</v>
+        <v>0.9183828735464781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7603264223453142</v>
+        <v>0.757561575638574</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8144531405647736</v>
+        <v>0.8164124347762116</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7944827566155404</v>
+        <v>0.7994321815801092</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6934262848894281</v>
+        <v>0.6932792324300872</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8494204526624036</v>
+        <v>0.8514724141829705</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8366464736429382</v>
+        <v>0.8360787802772233</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7089526545028183</v>
+        <v>0.7079893123034552</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.8418193306372436</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.73330991961533</v>
@@ -1427,7 +1427,7 @@
         <v>0.7881652949642197</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>372165</v>
+        <v>373247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>341165</v>
+        <v>341781</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>363979</v>
+        <v>362921</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>313555</v>
+        <v>311800</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>290842</v>
+        <v>291525</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>292741</v>
+        <v>291992</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>698410</v>
+        <v>695188</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>642710</v>
+        <v>641669</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>667300</v>
+        <v>669953</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>403464</v>
+        <v>404167</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>370489</v>
+        <v>371590</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>392869</v>
+        <v>392060</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>348283</v>
+        <v>347096</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>322600</v>
+        <v>323231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>328175</v>
+        <v>327942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>745831</v>
+        <v>744447</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>684922</v>
+        <v>685341</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>714784</v>
+        <v>715249</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>555300</v>
+        <v>553141</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>460411</v>
+        <v>461371</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>397153</v>
+        <v>395849</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>437069</v>
+        <v>437047</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>411230</v>
+        <v>406870</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>395292</v>
+        <v>396226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1004307</v>
+        <v>1004157</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>878737</v>
+        <v>879748</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>801496</v>
+        <v>803146</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>593481</v>
+        <v>592092</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>498867</v>
+        <v>498510</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>433674</v>
+        <v>432502</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>480251</v>
+        <v>479362</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>450054</v>
+        <v>447834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>431112</v>
+        <v>431116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1063296</v>
+        <v>1061247</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>936090</v>
+        <v>935292</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>854141</v>
+        <v>855735</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>538642</v>
+        <v>537390</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>523154</v>
+        <v>524252</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>494087</v>
+        <v>493502</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>488251</v>
+        <v>490430</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>468538</v>
+        <v>469995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>453723</v>
+        <v>456026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1039587</v>
+        <v>1038026</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1003187</v>
+        <v>1002857</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>961781</v>
+        <v>961126</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>577563</v>
+        <v>575097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>563945</v>
+        <v>563329</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>534644</v>
+        <v>534716</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>536025</v>
+        <v>537900</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>511438</v>
+        <v>513557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>489970</v>
+        <v>492008</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1102303</v>
+        <v>1102663</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1064451</v>
+        <v>1061245</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1014444</v>
+        <v>1012066</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>501423</v>
+        <v>501272</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>508792</v>
+        <v>507753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>546850</v>
+        <v>546717</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>400046</v>
+        <v>402267</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>420404</v>
+        <v>417083</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>518852</v>
+        <v>517575</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>915613</v>
+        <v>915701</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>939389</v>
+        <v>940220</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1077367</v>
+        <v>1076235</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>538492</v>
+        <v>539696</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>546672</v>
+        <v>546694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>588615</v>
+        <v>591053</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>449008</v>
+        <v>449406</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>466956</v>
+        <v>466691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>555776</v>
+        <v>556728</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>978996</v>
+        <v>976302</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1001124</v>
+        <v>1006095</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1133841</v>
+        <v>1136131</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>334008</v>
+        <v>332948</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>385577</v>
+        <v>387224</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>465114</v>
+        <v>467307</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>273792</v>
+        <v>273309</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>321731</v>
+        <v>323306</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>371070</v>
+        <v>370014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>619731</v>
+        <v>619019</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>721749</v>
+        <v>719579</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>846249</v>
+        <v>845453</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>365498</v>
+        <v>365909</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>419042</v>
+        <v>419436</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>502187</v>
+        <v>502981</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>314552</v>
+        <v>315997</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>365116</v>
+        <v>366840</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>407373</v>
+        <v>406294</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>671993</v>
+        <v>673311</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>775489</v>
+        <v>774643</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>898475</v>
+        <v>899359</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>259596</v>
+        <v>259952</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>272361</v>
+        <v>271060</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>315561</v>
+        <v>316004</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>251475</v>
+        <v>251344</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>248730</v>
+        <v>250385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>293192</v>
+        <v>294846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>520256</v>
+        <v>520112</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>531155</v>
+        <v>530302</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>616670</v>
+        <v>615747</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>283127</v>
+        <v>283876</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>297070</v>
+        <v>297033</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>340618</v>
+        <v>340727</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>283606</v>
+        <v>284280</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>285027</v>
+        <v>284016</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>320824</v>
+        <v>322499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>561231</v>
+        <v>559415</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>573843</v>
+        <v>574195</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>656918</v>
+        <v>655288</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>204856</v>
+        <v>205199</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>215788</v>
+        <v>216472</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>208648</v>
+        <v>209352</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>277789</v>
+        <v>279714</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>271862</v>
+        <v>273015</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>290328</v>
+        <v>290735</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>492525</v>
+        <v>494409</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>496806</v>
+        <v>495482</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>506494</v>
+        <v>507076</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>227632</v>
+        <v>227209</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>235223</v>
+        <v>234481</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>235204</v>
+        <v>234349</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>313109</v>
+        <v>313862</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>309810</v>
+        <v>311740</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>319969</v>
+        <v>319901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>534426</v>
+        <v>535717</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>539864</v>
+        <v>539497</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>546445</v>
+        <v>545703</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
     </row>
     <row r="36">
